--- a/va_facility_data_2025-02-20/Deerfield Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Deerfield%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Deerfield Beach VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Deerfield%20Beach%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rbe6bb87801de49a7969871775d4cfb86"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ref0aa39fa378496f916452c8c60931eb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R47970906f35c4ee8bc8db7d50bac2d40"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R093c061ca21c4d6b8069cb4507e056dc"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3b19ee0d01724e95bed20155d58c6fdb"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R41b4ba9366e24685b016732daabe8853"/>
   </x:sheets>
 </x:workbook>
 </file>
